--- a/SQL/Información_aplicativo_admisiones_posgrados_(respuestas).xlsx
+++ b/SQL/Información_aplicativo_admisiones_posgrados_(respuestas).xlsx
@@ -651,8 +651,8 @@
   <dimension ref="A1:AE1027"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
